--- a/Documentation/Working_Documents/Musical_Grasping_Training_Aid_BOM.xlsx
+++ b/Documentation/Working_Documents/Musical_Grasping_Training_Aid_BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 23-06 Conductive Music Toy/Conductive-Music-Toy/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/Jake/Shared Documents/General/GitHub/Musical_Grasping_Training_Aid/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="628" documentId="8_{893A3414-7A2B-4A49-B043-EA15E0C0AD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C8C6917-FE06-4A64-950E-CD22BB4A9342}"/>
+  <xr:revisionPtr revIDLastSave="698" documentId="8_{893A3414-7A2B-4A49-B043-EA15E0C0AD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5930FE74-EDEA-4DF3-8F38-9749486AF8AF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="Digikey" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="197">
   <si>
     <t>Device:</t>
   </si>
@@ -128,9 +129,6 @@
     <t>Alternatives</t>
   </si>
   <si>
-    <t xml:space="preserve"> V1.0</t>
-  </si>
-  <si>
     <t>Electronic Tube Half</t>
   </si>
   <si>
@@ -248,9 +246,6 @@
     <t>digikey</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Class-Memory-Cards-Micro-Card/dp/B0DC1VMKS8/ref=sr_1_10?crid=1ZITT7WL4KT53&amp;dib=eyJ2IjoiMSJ9.VnrMx5CVq3sW6SDP48qI0yt0E_EgaNIC_Dt4WvuN4hSeCkwy06i_Irbeij6kwaP_GgctBXOAO-uxhL91o9nF2ifkfuXzp4GKpN82pL1_nMRGTw7zQByGHORwvcJO7xe_wbcrKj2jvzC_7WIU4c_mP3hvA3YvHSwRxdz1YeXErKNBmLnMHe6Ua40i2F2PauQH6uAvF4oHaUPPVVeNwbSecLbLdO4mCKc6S7sslU53LNTk-SUTlWg3_HkXn3fA_5F9qIBozIdk5Dw2mKsZ6qdgrzNWE5-dI5HsGgKrZuV6t7g.3PMawx1An2PVFeM_fy2psNneVylS1fQpo56u2fepWcg&amp;dib_tag=se&amp;keywords=microsd+card&amp;qid=1726702428&amp;sprefix=microsd+card%2Caps%2C140&amp;sr=8-10</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/4600/13543375</t>
   </si>
   <si>
@@ -284,9 +279,6 @@
     <t>12-Key Capacitive Sensor with STEMMA QT</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/1982/4990787?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Pmax_Shopping_DK%2B%20Supplier_GEM%20Suppliers&amp;utm_term=&amp;utm_content=&amp;utm_id=go_cmp-21018510932_adg-_ad-__dev-c_ext-_prd-4990787_sig-EAIaIQobChMIxrW85NbNiAMVJczCBB1c4w4fEAQYASABEgLkfPD_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMIxrW85NbNiAMVJczCBB1c4w4fEAQYASABEgLkfPD_BwE</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/L4931CZ50-AP/1038130</t>
   </si>
   <si>
@@ -320,9 +312,6 @@
     <t>https://www.digikey.ca/en/products/detail/tdk-corporation/FG24X7R1A106KRT06/5802984</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/4784/13617526?s=N4IgjCBcoCwGxVAYygMwIYBsDOBTANCAPZQDaIMAHAKwDsMAzCALqEAOALlCAMocBOASwB2AcxABfKUA</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/te-connectivity-raychem-cable-protection/55A0111-24-9/2399803</t>
   </si>
   <si>
@@ -347,9 +336,6 @@
     <t>Shipping (flat rate for digikey)</t>
   </si>
   <si>
-    <t>SIRIMAL</t>
-  </si>
-  <si>
     <t>DFPlayer takes max 32 GB</t>
   </si>
   <si>
@@ -386,15 +372,9 @@
     <t>https://www.digikey.ca/en/products/detail/same-sky-formerly-cui-devices/TS02-66-100-BK-160-SCR-D/15634282</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/keystone-electronics/9907/317328?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_Zombie%20SKUs&amp;utm_term=&amp;productid=317328&amp;utm_content=General&amp;utm_id=go_cmp-17855401585_adg-_ad-__dev-c_ext-_prd-317328_sig-EAIaIQobChMIhtn994PaiAMVChGtBh0BfwEqEAQYASABEgJMHfD_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMIhtn994PaiAMVChGtBh0BfwEqEAQYASABEgJMHfD_BwE</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/3483/9745247</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/energizer-battery-company/E92/7400190?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Product_Low%20ROAS%20Categories&amp;utm_term=&amp;productid=7400190&amp;utm_content=&amp;utm_id=go_cmp-20291741422_adg-_ad-__dev-c_ext-_prd-7400190_sig-EAIaIQobChMItuLvvIfaiAMV5x6tBh2UYygrEAQYAiABEgKAB_D_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMItuLvvIfaiAMV5x6tBh2UYygrEAQYAiABEgKAB_D_BwE</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/product/1982</t>
   </si>
   <si>
@@ -413,9 +393,6 @@
     <t>Solder</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/chip-quik-inc./RASWLF.031%25201OZ/9681997?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_Zombie%20SKUs&amp;utm_term=&amp;productid=9681997&amp;utm_content=General&amp;utm_id=go_cmp-17855401585_adg-_ad-__dev-c_ext-_prd-9681997_sig-Cj0KCQjwu-63BhC9ARIsAMMTLXSrlG5U0jv_iPQ4mvyKD1_smJVX1vTbhfmfcKyo2JQ8x5cj8aAyKiwaAqW-EALw_wcB&amp;gad_source=1&amp;gclid=Cj0KCQjwu-63BhC9ARIsAMMTLXSrlG5U0jv_iPQ4mvyKD1_smJVX1vTbhfmfcKyo2JQ8x5cj8aAyKiwaAqW-EALw_wcB</t>
-  </si>
-  <si>
     <t>Chip Quik Inc.</t>
   </si>
   <si>
@@ -524,9 +501,6 @@
     <t>A09</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/dfrobot/DFR0299/6588463?s=N4IgTCBcDaICYDMBOB7ARigLgAgLYEsA7fbABwBsBDATwFMkQBdAXyA</t>
-  </si>
-  <si>
     <t>A18</t>
   </si>
   <si>
@@ -552,6 +526,108 @@
   </si>
   <si>
     <t>A24</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>RASWLF.0311OZ-ND</t>
+  </si>
+  <si>
+    <t>E92-ND</t>
+  </si>
+  <si>
+    <t>36-5213-ND</t>
+  </si>
+  <si>
+    <t>36-5223-ND</t>
+  </si>
+  <si>
+    <t>36-5201-ND</t>
+  </si>
+  <si>
+    <t>484-55A0111-24-9-DS-ND</t>
+  </si>
+  <si>
+    <t>36-9907-ND</t>
+  </si>
+  <si>
+    <t>EG1917-ND</t>
+  </si>
+  <si>
+    <t>2223-TS02-66-100-BK-160-SCR-D-ND</t>
+  </si>
+  <si>
+    <t>3949-OWS-4021TA-4-ND</t>
+  </si>
+  <si>
+    <t>1528-2748-ND</t>
+  </si>
+  <si>
+    <t>1528-1038-ND</t>
+  </si>
+  <si>
+    <t>1568-PRT-17260-ND</t>
+  </si>
+  <si>
+    <t>497-5838-1-ND</t>
+  </si>
+  <si>
+    <t>445-173370-1-ND</t>
+  </si>
+  <si>
+    <t>CF18JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>1738-1041-ND</t>
+  </si>
+  <si>
+    <t>1528-4600-ND</t>
+  </si>
+  <si>
+    <t>1528-4784-ND</t>
+  </si>
+  <si>
+    <t>1597-112990066-ND</t>
+  </si>
+  <si>
+    <t>Seeed Technology Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V1.1</t>
+  </si>
+  <si>
+    <t>2025-Mar-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/en/products/detail/seeed-technology-co-ltd/112990066/10290294 </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/keystone-electronics/9907/317328</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/4784/13617526</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/dfrobot/DFR0299/6588463</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/1982/4990787</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/chip-quik-inc./RASWLF.031%25201OZ/9681997</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/energizer-battery-company/E92/7400190</t>
+  </si>
+  <si>
+    <t>Part ID</t>
+  </si>
+  <si>
+    <t>Digikey Part Number</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
@@ -559,8 +635,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -951,40 +1027,40 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="12" borderId="1" xfId="11" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="10" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="6" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="11" borderId="6" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="11" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="12" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="12" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="11" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="9" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="10" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="10" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="6" applyBorder="1"/>
@@ -995,14 +1071,14 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="8" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="8" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="13" borderId="8" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1013,15 +1089,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="12" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="12" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="12" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="12" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="12" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="12" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="6" xfId="13" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="8" xfId="13" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="6" xfId="13" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="13" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="12" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1038,10 +1114,14 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="10" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="12" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -1335,63 +1415,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE8AD1-7DB5-46E4-9BCF-A08DFBDA7B00}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:14" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51">
-        <v>45644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I4" s="43" t="s">
         <v>3</v>
       </c>
@@ -1403,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1415,14 +1495,14 @@
       <c r="J5" s="40"/>
       <c r="K5" s="41">
         <f>K6+K29</f>
-        <v>90.475000000000009</v>
+        <v>79.855000000000004</v>
       </c>
       <c r="L5" s="42">
         <f>L6+L29</f>
-        <v>90.475000000000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79.855000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1439,16 +1519,16 @@
       <c r="J6" s="5"/>
       <c r="K6" s="45">
         <f>SUM(K8:K28)</f>
-        <v>87.95</v>
+        <v>77.33</v>
       </c>
       <c r="L6" s="6">
         <f>SUM(L8:L28)</f>
-        <v>87.95</v>
+        <v>77.33</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
@@ -1456,7 +1536,9 @@
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1486,20 +1568,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="E8" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="15">
         <v>1</v>
@@ -1514,34 +1598,36 @@
         <v>4.25</v>
       </c>
       <c r="K8" s="16">
-        <f>IF(G8&gt;0,J8/H8*G8,0)</f>
+        <f t="shared" ref="K8:K25" si="0">IF(G8&gt;0,J8/H8*G8,0)</f>
         <v>4.25</v>
       </c>
       <c r="L8" s="16">
-        <f>I8*J8</f>
+        <f t="shared" ref="L8:L25" si="1">I8*J8</f>
         <v>4.25</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="E9" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="15">
         <v>1</v>
@@ -1557,34 +1643,36 @@
         <v>10.8</v>
       </c>
       <c r="K9" s="16">
-        <f>IF(G9&gt;0,J9/H9*G9,0)</f>
+        <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
       <c r="L9" s="16">
-        <f>I9*J9</f>
+        <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="E10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="G10" s="12">
         <v>1</v>
@@ -1600,32 +1688,34 @@
         <v>8.5</v>
       </c>
       <c r="K10" s="8">
-        <f>IF(G10&gt;0,J10/H10*G10,0)</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="L10" s="16">
-        <f>I10*J10</f>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="75" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="E11" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="12">
         <v>1</v>
@@ -1640,32 +1730,34 @@
         <v>0.15</v>
       </c>
       <c r="K11" s="8">
-        <f>IF(G11&gt;0,J11/H11*G11,0)</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="L11" s="16">
-        <f>I11*J11</f>
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="75" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="E12" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="12">
         <v>1</v>
@@ -1680,34 +1772,36 @@
         <v>0.86</v>
       </c>
       <c r="K12" s="8">
-        <f>IF(G12&gt;0,J12/H12*G12,0)</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="L12" s="16">
-        <f>I12*J12</f>
+        <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>177</v>
+      </c>
       <c r="E13" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
@@ -1722,32 +1816,34 @@
         <v>1.43</v>
       </c>
       <c r="K13" s="8">
-        <f>IF(G13&gt;0,J13/H13*G13,0)</f>
+        <f t="shared" si="0"/>
         <v>1.43</v>
       </c>
       <c r="L13" s="16">
-        <f>I13*J13</f>
+        <f t="shared" si="1"/>
         <v>1.43</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="75" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>176</v>
+      </c>
       <c r="E14" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="22">
         <v>1</v>
@@ -1762,34 +1858,36 @@
         <v>1.53</v>
       </c>
       <c r="K14" s="8">
-        <f>IF(G14&gt;0,J14/H14*G14,0)</f>
+        <f t="shared" si="0"/>
         <v>1.53</v>
       </c>
       <c r="L14" s="16">
-        <f>I14*J14</f>
+        <f t="shared" si="1"/>
         <v>1.53</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="F15" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="22">
         <v>1</v>
@@ -1804,32 +1902,34 @@
         <v>11.45</v>
       </c>
       <c r="K15" s="8">
-        <f>IF(G15&gt;0,J15/H15*G15,0)</f>
+        <f t="shared" si="0"/>
         <v>11.45</v>
       </c>
       <c r="L15" s="16">
-        <f>I15*J15</f>
+        <f t="shared" si="1"/>
         <v>11.45</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>174</v>
+      </c>
       <c r="E16" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="22">
         <v>1</v>
@@ -1844,34 +1944,36 @@
         <v>7.13</v>
       </c>
       <c r="K16" s="8">
-        <f>IF(G16&gt;0,J16/H16*G16,0)</f>
+        <f t="shared" si="0"/>
         <v>7.13</v>
       </c>
       <c r="L16" s="16">
-        <f>I16*J16</f>
+        <f t="shared" si="1"/>
         <v>7.13</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="75" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>71</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>173</v>
+      </c>
       <c r="E17" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="22">
         <v>1</v>
@@ -1886,34 +1988,36 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="K17" s="8">
-        <f>IF(G17&gt;0,J17/H17*G17,0)</f>
+        <f t="shared" si="0"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="L17" s="16">
-        <f>I17*J17</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="M17" s="22"/>
       <c r="N17" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>108</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>172</v>
+      </c>
       <c r="E18" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="22">
         <v>2</v>
@@ -1928,34 +2032,36 @@
         <v>0.15</v>
       </c>
       <c r="K18" s="8">
-        <f>IF(G18&gt;0,J18/H18*G18,0)</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="L18" s="16">
-        <f>I18*J18</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>171</v>
+      </c>
       <c r="E19" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="22">
         <v>1</v>
@@ -1970,34 +2076,36 @@
         <v>1.28</v>
       </c>
       <c r="K19" s="8">
-        <f>IF(G19&gt;0,J19/H19*G19,0)</f>
+        <f t="shared" si="0"/>
         <v>1.28</v>
       </c>
       <c r="L19" s="16">
-        <f>I19*J19</f>
+        <f t="shared" si="1"/>
         <v>1.28</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="E20" s="22" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G20" s="22">
         <v>1</v>
@@ -2012,32 +2120,34 @@
         <v>6.99</v>
       </c>
       <c r="K20" s="8">
-        <f>IF(G20&gt;0,J20/H20*G20,0)</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
       <c r="L20" s="16">
-        <f>I20*J20</f>
+        <f t="shared" si="1"/>
         <v>6.99</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="75" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>170</v>
+      </c>
       <c r="E21" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="22">
         <v>5</v>
@@ -2052,32 +2162,34 @@
         <v>0.31</v>
       </c>
       <c r="K21" s="8">
-        <f>IF(G21&gt;0,J21/H21*G21,0)</f>
+        <f t="shared" si="0"/>
         <v>1.55</v>
       </c>
       <c r="L21" s="16">
-        <f>I21*J21</f>
+        <f t="shared" si="1"/>
         <v>1.55</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="75" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>169</v>
+      </c>
       <c r="E22" s="22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" s="22">
         <v>1</v>
@@ -2092,34 +2204,36 @@
         <v>1.8</v>
       </c>
       <c r="K22" s="8">
-        <f>IF(G22&gt;0,J22/H22*G22,0)</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="L22" s="16">
-        <f>I22*J22</f>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>168</v>
+      </c>
       <c r="E23" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
@@ -2134,34 +2248,36 @@
         <v>0.42</v>
       </c>
       <c r="K23" s="8">
-        <f>IF(G23&gt;0,J23/H23*G23,0)</f>
+        <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
       <c r="L23" s="16">
-        <f>I23*J23</f>
+        <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="75" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>167</v>
+      </c>
       <c r="E24" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="22">
         <v>1</v>
@@ -2176,34 +2292,36 @@
         <v>0.22</v>
       </c>
       <c r="K24" s="8">
-        <f>IF(G24&gt;0,J24/H24*G24,0)</f>
+        <f t="shared" si="0"/>
         <v>0.22</v>
       </c>
       <c r="L24" s="16">
-        <f>I24*J24</f>
+        <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>166</v>
+      </c>
       <c r="E25" s="22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="22">
         <v>1</v>
@@ -2218,70 +2336,50 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K25" s="8">
-        <f>IF(G25&gt;0,J25/H25*G25,0)</f>
+        <f t="shared" si="0"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="L25" s="16">
-        <f>I25*J25</f>
+        <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="75"/>
-      <c r="B26" s="22" t="s">
-        <v>124</v>
-      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="22">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22">
-        <v>1</v>
-      </c>
-      <c r="I26" s="22">
-        <v>1</v>
-      </c>
-      <c r="J26" s="53">
-        <v>10.62</v>
-      </c>
-      <c r="K26" s="8">
-        <f t="shared" ref="K10:K26" si="0">IF(G26&gt;0,J26/H26*G26,0)</f>
-        <v>10.62</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" ref="L9:L28" si="1">I26*J26</f>
-        <v>10.62</v>
-      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="54" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="54"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="75"/>
       <c r="B27" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>165</v>
+      </c>
       <c r="E27" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="22">
         <v>4</v>
@@ -2305,19 +2403,19 @@
       </c>
       <c r="M27" s="22"/>
       <c r="N27" s="54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="22">
         <v>1</v>
@@ -2336,13 +2434,13 @@
         <v>8</v>
       </c>
       <c r="L28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L28" si="4">I28*J28</f>
         <v>8</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="35" t="s">
         <v>18</v>
@@ -2369,7 +2467,7 @@
       <c r="M29" s="24"/>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="10" t="s">
         <v>8</v>
@@ -2409,15 +2507,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="77" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>25</v>
@@ -2433,32 +2531,32 @@
         <v>34</v>
       </c>
       <c r="I31" s="17">
-        <f>G31*H31</f>
+        <f t="shared" ref="I31:I36" si="5">G31*H31</f>
         <v>34</v>
       </c>
       <c r="J31" s="18">
         <v>25</v>
       </c>
       <c r="K31" s="18">
-        <f>IF(G31&gt;0,(J31/1000)*G31*H31,0)</f>
+        <f t="shared" ref="K31:K36" si="6">IF(G31&gt;0,(J31/1000)*G31*H31,0)</f>
         <v>0.85000000000000009</v>
       </c>
       <c r="L31" s="18">
-        <f>K31</f>
+        <f t="shared" ref="L31:L36" si="7">K31</f>
         <v>0.85000000000000009</v>
       </c>
       <c r="M31" s="17"/>
-      <c r="N31" s="79"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="78"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>25</v>
@@ -2474,32 +2572,32 @@
         <v>43</v>
       </c>
       <c r="I32" s="13">
-        <f>G32*H32</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="J32" s="11">
         <v>25</v>
       </c>
       <c r="K32" s="11">
-        <f>IF(G32&gt;0,(J32/1000)*G32*H32,0)</f>
+        <f t="shared" si="6"/>
         <v>1.075</v>
       </c>
       <c r="L32" s="11">
-        <f>K32</f>
+        <f t="shared" si="7"/>
         <v>1.075</v>
       </c>
       <c r="M32" s="13"/>
-      <c r="N32" s="79"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N32" s="78"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>25</v>
@@ -2515,32 +2613,32 @@
         <v>1</v>
       </c>
       <c r="I33" s="13">
-        <f>G33*H33</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J33" s="11">
         <v>25</v>
       </c>
       <c r="K33" s="11">
-        <f>IF(G33&gt;0,(J33/1000)*G33*H33,0)</f>
+        <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L33" s="11">
-        <f>K33</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="M33" s="13"/>
-      <c r="N33" s="79"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N33" s="78"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="77" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>25</v>
@@ -2556,32 +2654,32 @@
         <v>3</v>
       </c>
       <c r="I34" s="13">
-        <f>G34*H34</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J34" s="11">
         <v>25</v>
       </c>
       <c r="K34" s="11">
-        <f>IF(G34&gt;0,(J34/1000)*G34*H34,0)</f>
+        <f t="shared" si="6"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="L34" s="11">
-        <f>K34</f>
+        <f t="shared" si="7"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="M34" s="13"/>
-      <c r="N34" s="79"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N34" s="78"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="77" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>25</v>
@@ -2597,32 +2695,32 @@
         <v>11</v>
       </c>
       <c r="I35" s="13">
-        <f>G35*H35</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="J35" s="11">
         <v>25</v>
       </c>
       <c r="K35" s="11">
-        <f>IF(G35&gt;0,(J35/1000)*G35*H35,0)</f>
+        <f t="shared" si="6"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="L35" s="11">
-        <f>K35</f>
+        <f t="shared" si="7"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="M35" s="13"/>
-      <c r="N35" s="79"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N35" s="78"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>25</v>
@@ -2638,24 +2736,24 @@
         <v>9</v>
       </c>
       <c r="I36" s="13">
-        <f>G36*H36</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="J36" s="11">
         <v>25</v>
       </c>
       <c r="K36" s="11">
-        <f>IF(G36&gt;0,(J36/1000)*G36*H36,0)</f>
+        <f t="shared" si="6"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="L36" s="11">
-        <f>K36</f>
+        <f t="shared" si="7"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="M36" s="13"/>
-      <c r="N36" s="79"/>
-    </row>
-    <row r="37" spans="1:14" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N36" s="78"/>
+    </row>
+    <row r="37" spans="1:14" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -2671,7 +2769,7 @@
       <c r="M37" s="47"/>
       <c r="N37" s="47"/>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="36" t="s">
         <v>27</v>
@@ -2689,7 +2787,7 @@
       <c r="M38" s="29"/>
       <c r="N38" s="31"/>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="46" t="s">
         <v>28</v>
@@ -2715,22 +2813,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="72" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
@@ -2740,25 +2838,25 @@
       <c r="L40" s="19"/>
       <c r="M40" s="58"/>
       <c r="N40" s="58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="72" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -2768,25 +2866,25 @@
       <c r="L41" s="14"/>
       <c r="M41" s="63"/>
       <c r="N41" s="57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="72" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -2796,25 +2894,25 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42" s="57" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="72" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -2824,25 +2922,25 @@
       <c r="L43" s="14"/>
       <c r="M43" s="57"/>
       <c r="N43" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="73" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D44" s="62"/>
       <c r="E44" s="62" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F44" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44" s="62"/>
       <c r="H44" s="62"/>
@@ -2852,25 +2950,25 @@
       <c r="L44" s="62"/>
       <c r="M44" s="57"/>
       <c r="N44" s="63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="74" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -2880,25 +2978,25 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
       <c r="N45" s="71" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="64" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
@@ -2908,103 +3006,141 @@
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
       <c r="N46" s="57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="70" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="83" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="80"/>
+      <c r="B47" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="81">
+        <v>1</v>
+      </c>
+      <c r="H47" s="81">
+        <v>1</v>
+      </c>
+      <c r="I47" s="81">
+        <v>1</v>
+      </c>
+      <c r="J47" s="81">
+        <v>10.62</v>
+      </c>
+      <c r="K47" s="81">
+        <v>10.62</v>
+      </c>
+      <c r="L47" s="81">
+        <v>10.62</v>
+      </c>
+      <c r="M47" s="81"/>
+      <c r="N47" s="82" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="70" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="66"/>
+      <c r="B48" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="69"/>
-    </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33"/>
-      <c r="B48" s="65" t="s">
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="69"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33"/>
+      <c r="B49" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C49" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65" t="s">
+      <c r="D49" s="65"/>
+      <c r="E49" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F49" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="65" t="s">
+      <c r="G49" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="65" t="s">
+      <c r="H49" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="65" t="s">
+      <c r="I49" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="65" t="s">
+      <c r="J49" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="65" t="s">
+      <c r="K49" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="65" t="s">
+      <c r="L49" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65" t="s">
+      <c r="M49" s="65"/>
+      <c r="N49" s="65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="21">
-        <v>1</v>
-      </c>
-      <c r="H49" s="21">
-        <v>1</v>
-      </c>
-      <c r="I49" s="21">
-        <v>1</v>
-      </c>
-      <c r="J49" s="60">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="21">
+        <v>1</v>
+      </c>
+      <c r="H50" s="21">
+        <v>1</v>
+      </c>
+      <c r="I50" s="21">
+        <v>1</v>
+      </c>
+      <c r="J50" s="60">
         <v>10.76</v>
       </c>
-      <c r="K49" s="60">
+      <c r="K50" s="60">
         <v>10.76</v>
       </c>
-      <c r="L49" s="60">
+      <c r="L50" s="60">
         <v>10.76</v>
       </c>
-      <c r="M49" s="21"/>
-      <c r="N49" s="59" t="s">
-        <v>119</v>
+      <c r="M50" s="21"/>
+      <c r="N50" s="59" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +3155,7 @@
     <hyperlink ref="N10" r:id="rId2" xr:uid="{2F126AF6-691E-4A80-AC54-1830E8090E49}"/>
     <hyperlink ref="N17" r:id="rId3" xr:uid="{8E11051F-9AA3-4D32-8EA1-05F1A2CA78B2}"/>
     <hyperlink ref="N14" r:id="rId4" xr:uid="{D809691C-118D-4392-9DFC-E72D686D9E3B}"/>
-    <hyperlink ref="N15" r:id="rId5" display="https://www.digikey.ca/en/products/detail/adafruit-industries-llc/1982/4990787?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Pmax_Shopping_DK%2B%20Supplier_GEM%20Suppliers&amp;utm_term=&amp;utm_content=&amp;utm_id=go_cmp-21018510932_adg-_ad-__dev-c_ext-_prd-4990787_sig-EAIaIQobChMIxrW85NbNiAMVJczCBB1c4w4fEAQYASABEgLkfPD_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMIxrW85NbNiAMVJczCBB1c4w4fEAQYASABEgLkfPD_BwE" xr:uid="{05B05CA9-89EE-4D0B-8735-814A07576DEB}"/>
+    <hyperlink ref="N15" r:id="rId5" xr:uid="{05B05CA9-89EE-4D0B-8735-814A07576DEB}"/>
     <hyperlink ref="N13" r:id="rId6" xr:uid="{8E548779-5A51-40C1-A98B-C88B5ECA9F7F}"/>
     <hyperlink ref="N11" r:id="rId7" xr:uid="{5F4C686D-8115-49EE-8E9C-4AFCE1BE927D}"/>
     <hyperlink ref="N19" r:id="rId8" xr:uid="{CA91356D-712E-48A4-801C-6066D0249ABF}"/>
@@ -3029,20 +3165,297 @@
     <hyperlink ref="N25" r:id="rId12" xr:uid="{ED3EA56C-BFC8-443B-944D-7F23BA4341B1}"/>
     <hyperlink ref="N23" r:id="rId13" xr:uid="{21BF063F-3460-4FCB-8178-BC2655F3ADD1}"/>
     <hyperlink ref="N24" r:id="rId14" xr:uid="{27124C39-C795-4897-9144-DB7C7C5F4C79}"/>
-    <hyperlink ref="N20" r:id="rId15" display="https://www.amazon.ca/Class-Memory-Cards-Micro-Card/dp/B0DC1VMKS8/ref=sr_1_10?crid=1ZITT7WL4KT53&amp;dib=eyJ2IjoiMSJ9.VnrMx5CVq3sW6SDP48qI0yt0E_EgaNIC_Dt4WvuN4hSeCkwy06i_Irbeij6kwaP_GgctBXOAO-uxhL91o9nF2ifkfuXzp4GKpN82pL1_nMRGTw7zQByGHORwvcJO7xe_wbcrKj2jvzC_7WIU4c_mP3hvA3YvHSwRxdz1YeXErKNBmLnMHe6Ua40i2F2PauQH6uAvF4oHaUPPVVeNwbSecLbLdO4mCKc6S7sslU53LNTk-SUTlWg3_HkXn3fA_5F9qIBozIdk5Dw2mKsZ6qdgrzNWE5-dI5HsGgKrZuV6t7g.3PMawx1An2PVFeM_fy2psNneVylS1fQpo56u2fepWcg&amp;dib_tag=se&amp;keywords=microsd+card&amp;qid=1726702428&amp;sprefix=microsd+card%2Caps%2C140&amp;sr=8-10" xr:uid="{395FEE94-9C2F-4E41-B44C-C517467F32A3}"/>
-    <hyperlink ref="N18" r:id="rId16" xr:uid="{CF47DF61-3C7D-4159-9DAF-625447DDA198}"/>
-    <hyperlink ref="N21" r:id="rId17" display="https://www.digikey.ca/en/products/detail/keystone-electronics/9907/317328?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_Zombie%20SKUs&amp;utm_term=&amp;productid=317328&amp;utm_content=General&amp;utm_id=go_cmp-17855401585_adg-_ad-__dev-c_ext-_prd-317328_sig-EAIaIQobChMIhtn994PaiAMVChGtBh0BfwEqEAQYASABEgJMHfD_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMIhtn994PaiAMVChGtBh0BfwEqEAQYASABEgJMHfD_BwE" xr:uid="{6C1CEDDB-E926-4DBA-A955-76D2BE34341D}"/>
-    <hyperlink ref="N16" r:id="rId18" xr:uid="{651D7EF3-D619-41E0-9037-0EBEB401BDC2}"/>
-    <hyperlink ref="N49" r:id="rId19" xr:uid="{D9794520-D15F-4D1F-ACAB-8C5C0C620462}"/>
-    <hyperlink ref="N27" r:id="rId20" display="https://www.digikey.ca/en/products/detail/energizer-battery-company/E92/7400190?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Product_Low%20ROAS%20Categories&amp;utm_term=&amp;productid=7400190&amp;utm_content=&amp;utm_id=go_cmp-20291741422_adg-_ad-__dev-c_ext-_prd-7400190_sig-EAIaIQobChMItuLvvIfaiAMV5x6tBh2UYygrEAQYAiABEgKAB_D_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMItuLvvIfaiAMV5x6tBh2UYygrEAQYAiABEgKAB_D_BwE" xr:uid="{7492094D-E250-452C-9305-2A63202F0265}"/>
-    <hyperlink ref="N26" r:id="rId21" display="https://www.digikey.ca/en/products/detail/chip-quik-inc./RASWLF.031%25201OZ/9681997?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_Zombie%20SKUs&amp;utm_term=&amp;productid=9681997&amp;utm_content=General&amp;utm_id=go_cmp-17855401585_adg-_ad-__dev-c_ext-_prd-9681997_sig-Cj0KCQjwu-63BhC9ARIsAMMTLXSrlG5U0jv_iPQ4mvyKD1_smJVX1vTbhfmfcKyo2JQ8x5cj8aAyKiwaAqW-EALw_wcB&amp;gad_source=1&amp;gclid=Cj0KCQjwu-63BhC9ARIsAMMTLXSrlG5U0jv_iPQ4mvyKD1_smJVX1vTbhfmfcKyo2JQ8x5cj8aAyKiwaAqW-EALw_wcB" xr:uid="{E4AF3A0D-D0EC-4E06-A9F9-6660B6EE57D1}"/>
-    <hyperlink ref="N45" r:id="rId22" display="https://www.amazon.ca/AstroAI-Digital-Multimeter-2000Counts-Voltage/dp/B01ISAMUA6/ref=sr_1_1?crid=3PQ7X77SWFJ5H&amp;dib=eyJ2IjoiMSJ9.I9zzGqKw5DAjOpmX6qPOpZB48jxZHpHlO8O6iCWDejiTZPC5aSMAqOTw13Cw2E1OjM8yg7tk3hCL0oYeIyv1lXc0IfGrJiqIPDZcg2BErxumWqRH6VoA0yV5Z7wsVdSFWZn8M_hUOwN-w2-zH_gjznbIMWkVYgx8J198AoSgCzVM5sQir6uIe5iqXCusXlR31PYSJRIXTzLVeL0OcpzDAG5o0bh7ECfMH4wG0ngm6UzCZ90Jfa9tphQO0b1rRMahtH3h5fYaiTY1mt_PghyItm5Jo6zGn5o6NewtnkJZEY4.getM7EVmicX-XdBZv-nxrEBBVJ4LPchLFrD4fQ5Cr8g&amp;dib_tag=se&amp;keywords=multimeter&amp;qid=1727804677&amp;sprefix=multimeter%2Caps%2C139&amp;sr=8-1" xr:uid="{C07CE3B2-C84D-4B41-AD76-4122F0573C67}"/>
-    <hyperlink ref="N40" r:id="rId23" display="https://www.amazon.ca/Wera-05008725002-Kraftform-Phillips-Screwdriver/dp/B0035YLT08/ref=sr_1_30?crid=3RUZT3FEKISF9&amp;dib=eyJ2IjoiMSJ9.yqTnORoWN6hnb6Q6Xlyy_h3tUb_agv_wwNZckajn6l_IGeNwSkJ5agQFARCJkuo8oXGbyvRJ6FFrhjxhHT4HRQ6QkcDKJL7pbmhI9EmG9zXWozTAbae0aLG6sZPMvukroqaaDOeOF_tgvKKzyQhpHzoM0cJ9aOQGCzQp170yqdUYZPQHgtPaYH9pg35lIq9WaRGMxDODAezAfIxUbNdW4OoMWi60UClIr8zvQFEOLGU1Z-4Kpw1mzlSjhV9tpaPsN7m2AMQKC2ELiFAt_KmjhsG-ZpisIwR135bKomw5Lx0.alM4gaYdmS0ZfWMQN4iA_gVFk6NGgK1Sf5GhRuXU1gM&amp;dib_tag=se&amp;keywords=phillips%2Bscrewdriver&amp;qid=1727116988&amp;sprefix=philips%2Bscred%2Caps%2C145&amp;sr=8-30&amp;th=1" xr:uid="{0A793E9D-B166-48F2-A6A9-1CB9082E76A3}"/>
-    <hyperlink ref="N41" r:id="rId24" display="https://www.amazon.ca/Hakko-CSP-30-1-Stripper-Maximum-Capacity/dp/B00FZPHMUG/ref=sr_1_5?crid=HLN6S0CKW1IP&amp;dib=eyJ2IjoiMSJ9.xXazaaX7mR14hdyXzaCBIvQGYFckAEW681bP6sMAJ97PfyhUusxksUdSt4YbeV1z-EwBML7r9XyzA_MWsoA2GF-wy_W4H5SHcXQcJzDwVgfVxQzUroxptAd-idh1CWYP0BaM8DZwsAsBNmtnowABIK-1Dj6IBcHuEw5BB5NtXpeYEI749FMh4VyPZGmPEDvWBLdoS5ibLFmlniNa3NfMtYdvWTo3NwWrHf93d024V7BDlZTOB-1Gpg0334EteYLvpeNNpgK8dsNcrsh3dpMBSOssB5y4Y0k3Vk2SeZTWT3M.E1zv2TWmkTjrqQGKQshTTdC5L0o6BWBr9Now99xh2do&amp;dib_tag=se&amp;keywords=hakko+wire+stripper&amp;qid=1727117284&amp;sprefix=hakko+wire+s%2Caps%2C156&amp;sr=8-5" xr:uid="{EC82BF54-C690-44D4-B23D-C92A5903EAF1}"/>
-    <hyperlink ref="N43" r:id="rId25" display="https://www.amazon.ca/CRAFTSMAN-CMHT81644-Long-Nose-PLIER-6IN/dp/B09JB2HS1D/ref=sr_1_5?crid=1YH1KMFNVC014&amp;dib=eyJ2IjoiMSJ9.TIIfwH5eLcCovhYW-IAdYfmTvyAdZqsyCSjVdb5BMxdzkm8BCYNKLgjsGIptIfx-exdqrPIBID_d8SHDcT8fMpshrnn-pHNG35E92BoNWKFZtveLLbDjOkOmJQxTFtWc8WWtChemXd04YvptofJizfbkkKE8DPrUBgFn10Ou9dIjpwR095rYU3IImCCPh4kKdu80U2Gk5ZC1HjjlRIJNsD4jKGF4mucK7arzmBh95wGFUoYK6e8jno4hgnW5UP4DeDFdhFbULJi74Dw2_JDtp3OQs2EiwTor4Aqf2hBDUbM.hOAADd9p8jfM-PYSp4RHqSf9O1poFy9n5v4Fv9k-bvs&amp;dib_tag=se&amp;keywords=needle+nose+pliers&amp;qid=1727116854&amp;sprefix=needle+nose+plier%2Caps%2C149&amp;sr=8-5" xr:uid="{61F3B5CA-E01F-4189-B926-1F8C2D2AB5A3}"/>
+    <hyperlink ref="N18" r:id="rId15" xr:uid="{CF47DF61-3C7D-4159-9DAF-625447DDA198}"/>
+    <hyperlink ref="N21" r:id="rId16" xr:uid="{6C1CEDDB-E926-4DBA-A955-76D2BE34341D}"/>
+    <hyperlink ref="N16" r:id="rId17" xr:uid="{651D7EF3-D619-41E0-9037-0EBEB401BDC2}"/>
+    <hyperlink ref="N50" r:id="rId18" xr:uid="{D9794520-D15F-4D1F-ACAB-8C5C0C620462}"/>
+    <hyperlink ref="N27" r:id="rId19" xr:uid="{7492094D-E250-452C-9305-2A63202F0265}"/>
+    <hyperlink ref="N45" r:id="rId20" display="https://www.amazon.ca/AstroAI-Digital-Multimeter-2000Counts-Voltage/dp/B01ISAMUA6/ref=sr_1_1?crid=3PQ7X77SWFJ5H&amp;dib=eyJ2IjoiMSJ9.I9zzGqKw5DAjOpmX6qPOpZB48jxZHpHlO8O6iCWDejiTZPC5aSMAqOTw13Cw2E1OjM8yg7tk3hCL0oYeIyv1lXc0IfGrJiqIPDZcg2BErxumWqRH6VoA0yV5Z7wsVdSFWZn8M_hUOwN-w2-zH_gjznbIMWkVYgx8J198AoSgCzVM5sQir6uIe5iqXCusXlR31PYSJRIXTzLVeL0OcpzDAG5o0bh7ECfMH4wG0ngm6UzCZ90Jfa9tphQO0b1rRMahtH3h5fYaiTY1mt_PghyItm5Jo6zGn5o6NewtnkJZEY4.getM7EVmicX-XdBZv-nxrEBBVJ4LPchLFrD4fQ5Cr8g&amp;dib_tag=se&amp;keywords=multimeter&amp;qid=1727804677&amp;sprefix=multimeter%2Caps%2C139&amp;sr=8-1" xr:uid="{C07CE3B2-C84D-4B41-AD76-4122F0573C67}"/>
+    <hyperlink ref="N40" r:id="rId21" display="https://www.amazon.ca/Wera-05008725002-Kraftform-Phillips-Screwdriver/dp/B0035YLT08/ref=sr_1_30?crid=3RUZT3FEKISF9&amp;dib=eyJ2IjoiMSJ9.yqTnORoWN6hnb6Q6Xlyy_h3tUb_agv_wwNZckajn6l_IGeNwSkJ5agQFARCJkuo8oXGbyvRJ6FFrhjxhHT4HRQ6QkcDKJL7pbmhI9EmG9zXWozTAbae0aLG6sZPMvukroqaaDOeOF_tgvKKzyQhpHzoM0cJ9aOQGCzQp170yqdUYZPQHgtPaYH9pg35lIq9WaRGMxDODAezAfIxUbNdW4OoMWi60UClIr8zvQFEOLGU1Z-4Kpw1mzlSjhV9tpaPsN7m2AMQKC2ELiFAt_KmjhsG-ZpisIwR135bKomw5Lx0.alM4gaYdmS0ZfWMQN4iA_gVFk6NGgK1Sf5GhRuXU1gM&amp;dib_tag=se&amp;keywords=phillips%2Bscrewdriver&amp;qid=1727116988&amp;sprefix=philips%2Bscred%2Caps%2C145&amp;sr=8-30&amp;th=1" xr:uid="{0A793E9D-B166-48F2-A6A9-1CB9082E76A3}"/>
+    <hyperlink ref="N41" r:id="rId22" display="https://www.amazon.ca/Hakko-CSP-30-1-Stripper-Maximum-Capacity/dp/B00FZPHMUG/ref=sr_1_5?crid=HLN6S0CKW1IP&amp;dib=eyJ2IjoiMSJ9.xXazaaX7mR14hdyXzaCBIvQGYFckAEW681bP6sMAJ97PfyhUusxksUdSt4YbeV1z-EwBML7r9XyzA_MWsoA2GF-wy_W4H5SHcXQcJzDwVgfVxQzUroxptAd-idh1CWYP0BaM8DZwsAsBNmtnowABIK-1Dj6IBcHuEw5BB5NtXpeYEI749FMh4VyPZGmPEDvWBLdoS5ibLFmlniNa3NfMtYdvWTo3NwWrHf93d024V7BDlZTOB-1Gpg0334EteYLvpeNNpgK8dsNcrsh3dpMBSOssB5y4Y0k3Vk2SeZTWT3M.E1zv2TWmkTjrqQGKQshTTdC5L0o6BWBr9Now99xh2do&amp;dib_tag=se&amp;keywords=hakko+wire+stripper&amp;qid=1727117284&amp;sprefix=hakko+wire+s%2Caps%2C156&amp;sr=8-5" xr:uid="{EC82BF54-C690-44D4-B23D-C92A5903EAF1}"/>
+    <hyperlink ref="N43" r:id="rId23" display="https://www.amazon.ca/CRAFTSMAN-CMHT81644-Long-Nose-PLIER-6IN/dp/B09JB2HS1D/ref=sr_1_5?crid=1YH1KMFNVC014&amp;dib=eyJ2IjoiMSJ9.TIIfwH5eLcCovhYW-IAdYfmTvyAdZqsyCSjVdb5BMxdzkm8BCYNKLgjsGIptIfx-exdqrPIBID_d8SHDcT8fMpshrnn-pHNG35E92BoNWKFZtveLLbDjOkOmJQxTFtWc8WWtChemXd04YvptofJizfbkkKE8DPrUBgFn10Ou9dIjpwR095rYU3IImCCPh4kKdu80U2Gk5ZC1HjjlRIJNsD4jKGF4mucK7arzmBh95wGFUoYK6e8jno4hgnW5UP4DeDFdhFbULJi74Dw2_JDtp3OQs2EiwTor4Aqf2hBDUbM.hOAADd9p8jfM-PYSp4RHqSf9O1poFy9n5v4Fv9k-bvs&amp;dib_tag=se&amp;keywords=needle+nose+pliers&amp;qid=1727116854&amp;sprefix=needle+nose+plier%2Caps%2C149&amp;sr=8-5" xr:uid="{61F3B5CA-E01F-4189-B926-1F8C2D2AB5A3}"/>
+    <hyperlink ref="N20" r:id="rId24" xr:uid="{719D0DC6-9C02-4FB6-9EEB-34D4C9B80409}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5806A8-18C0-4226-BD2B-3E42C8043C53}">
+  <dimension ref="A2:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>BOM!A8</f>
+        <v>A01</v>
+      </c>
+      <c r="B3" t="str">
+        <f>BOM!D8</f>
+        <v>1528-4784-ND</v>
+      </c>
+      <c r="C3">
+        <f>BOM!G8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>BOM!A9</f>
+        <v>A02</v>
+      </c>
+      <c r="B4" t="str">
+        <f>BOM!D9</f>
+        <v>1528-4600-ND</v>
+      </c>
+      <c r="C4">
+        <f>BOM!G9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>BOM!A10</f>
+        <v>A03</v>
+      </c>
+      <c r="B5" t="str">
+        <f>BOM!D10</f>
+        <v>1738-1041-ND</v>
+      </c>
+      <c r="C5">
+        <f>BOM!G10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>BOM!A11</f>
+        <v>A04</v>
+      </c>
+      <c r="B6" t="str">
+        <f>BOM!D11</f>
+        <v>CF18JT1K00CT-ND</v>
+      </c>
+      <c r="C6">
+        <f>BOM!G11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>BOM!A12</f>
+        <v>A05</v>
+      </c>
+      <c r="B7" t="str">
+        <f>BOM!D12</f>
+        <v>445-173370-1-ND</v>
+      </c>
+      <c r="C7">
+        <f>BOM!G12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>BOM!A13</f>
+        <v>A06</v>
+      </c>
+      <c r="B8" t="str">
+        <f>BOM!D13</f>
+        <v>497-5838-1-ND</v>
+      </c>
+      <c r="C8">
+        <f>BOM!G13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>BOM!A14</f>
+        <v>A07</v>
+      </c>
+      <c r="B9" t="str">
+        <f>BOM!D14</f>
+        <v>1568-PRT-17260-ND</v>
+      </c>
+      <c r="C9">
+        <f>BOM!G14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>BOM!A15</f>
+        <v>A08</v>
+      </c>
+      <c r="B10" t="str">
+        <f>BOM!D15</f>
+        <v>1528-1038-ND</v>
+      </c>
+      <c r="C10">
+        <f>BOM!G15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>BOM!A16</f>
+        <v>A09</v>
+      </c>
+      <c r="B11" t="str">
+        <f>BOM!D16</f>
+        <v>1528-2748-ND</v>
+      </c>
+      <c r="C11">
+        <f>BOM!G16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>BOM!A17</f>
+        <v>A10</v>
+      </c>
+      <c r="B12" t="str">
+        <f>BOM!D17</f>
+        <v>3949-OWS-4021TA-4-ND</v>
+      </c>
+      <c r="C12">
+        <f>BOM!G17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>BOM!A18</f>
+        <v>A11</v>
+      </c>
+      <c r="B13" t="str">
+        <f>BOM!D18</f>
+        <v>2223-TS02-66-100-BK-160-SCR-D-ND</v>
+      </c>
+      <c r="C13">
+        <f>BOM!G18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>BOM!A19</f>
+        <v>A12</v>
+      </c>
+      <c r="B14" t="str">
+        <f>BOM!D19</f>
+        <v>EG1917-ND</v>
+      </c>
+      <c r="C14">
+        <f>BOM!G19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>BOM!A20</f>
+        <v>A13</v>
+      </c>
+      <c r="B15" t="str">
+        <f>BOM!D20</f>
+        <v>1597-112990066-ND</v>
+      </c>
+      <c r="C15">
+        <f>BOM!G20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>BOM!A21</f>
+        <v>A14</v>
+      </c>
+      <c r="B16" t="str">
+        <f>BOM!D21</f>
+        <v>36-9907-ND</v>
+      </c>
+      <c r="C16">
+        <f>BOM!G21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>BOM!A22</f>
+        <v>A15</v>
+      </c>
+      <c r="B17" t="str">
+        <f>BOM!D22</f>
+        <v>484-55A0111-24-9-DS-ND</v>
+      </c>
+      <c r="C17">
+        <f>BOM!G22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>BOM!A23</f>
+        <v>A16</v>
+      </c>
+      <c r="B18" t="str">
+        <f>BOM!D23</f>
+        <v>36-5201-ND</v>
+      </c>
+      <c r="C18">
+        <f>BOM!G23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>BOM!A24</f>
+        <v>A17</v>
+      </c>
+      <c r="B19" t="str">
+        <f>BOM!D24</f>
+        <v>36-5223-ND</v>
+      </c>
+      <c r="C19">
+        <f>BOM!G24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>BOM!A25</f>
+        <v>A18</v>
+      </c>
+      <c r="B20" t="str">
+        <f>BOM!D25</f>
+        <v>36-5213-ND</v>
+      </c>
+      <c r="C20">
+        <f>BOM!G25</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3056,17 +3469,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72518c49cc9021390dbba2958e7a3f0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175092e7cad6d6b91dac7c2ca96d6cf8" ns2:_="" ns3:_="">
     <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
@@ -3287,6 +3689,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
@@ -3296,16 +3709,33 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FECB6B8D-90C3-446E-8F24-F5B37CAD998F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FECB6B8D-90C3-446E-8F24-F5B37CAD998F}"/>
 </file>